--- a/lib/template/report_summary.xlsx
+++ b/lib/template/report_summary.xlsx
@@ -19,10 +19,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1601185960" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1601185960" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1601185960" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1601185960"/>
+      <pm:revision xmlns:pm="smNativeData" day="1601870685" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1601870685" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1601870685" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1601870685"/>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +46,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -70,7 +70,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -94,7 +94,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -118,7 +118,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -142,7 +142,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -166,7 +166,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -190,7 +190,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -214,7 +214,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -238,7 +238,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -262,7 +262,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -286,7 +286,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -310,7 +310,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -334,7 +334,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -358,7 +358,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -382,7 +382,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -406,7 +406,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -430,7 +430,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -454,7 +454,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -478,7 +478,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -502,7 +502,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -526,7 +526,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -550,7 +550,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -574,7 +574,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -598,7 +598,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -622,7 +622,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -656,7 +656,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -664,7 +664,7 @@
               </ext>
             </extLst>
           </rPr>
-          <t>level</t>
+          <t>level_header</t>
         </r>
       </text>
     </comment>
@@ -680,7 +680,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -704,7 +704,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -728,7 +728,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -752,7 +752,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -776,7 +776,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -800,7 +800,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -809,6 +809,13 @@
             </extLst>
           </rPr>
           <t>platform</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <t>level</t>
         </r>
       </text>
     </comment>
@@ -834,7 +841,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -858,31 +865,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
-                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
-                  <pm:cs face="ＭＳ Ｐゴシック"/>
-                  <pm:ea face="ＭＳ Ｐゴシック"/>
-                </pm:charSpec>
-              </ext>
-            </extLst>
-          </rPr>
-          <t>deviceName</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-            <family val="3"/>
-            <sz val="10"/>
-            <b val="0"/>
-            <i val="0"/>
-            <extLst>
-              <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -916,7 +899,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -940,7 +923,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -964,7 +947,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -988,7 +971,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1012,7 +995,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1036,7 +1019,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1060,7 +1043,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1084,7 +1067,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1093,6 +1076,79 @@
             </extLst>
           </rPr>
           <t>Match</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <t>Level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>level_header</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <t>Integer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t>NumberSameAs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <t>NumberNotFound</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <t>NumberNotFound</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <t>NumberSameAs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <t>Double</t>
         </r>
       </text>
     </comment>
@@ -1101,7 +1157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -1200,7 +1256,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1601185960">
+            <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
               <pm:latin face="ＭＳ ゴシック" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1221,9 +1277,6 @@
     <t>プラットフォーム</t>
   </si>
   <si>
-    <t>デバイス</t>
-  </si>
-  <si>
     <t>{device}</t>
   </si>
   <si>
@@ -1234,6 +1287,12 @@
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>整数値</t>
+  </si>
+  <si>
+    <t>浮動小数点数値</t>
   </si>
   <si>
     <t>cent7g</t>
@@ -1252,7 +1311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="15">
+  <numFmts count="18">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;¥&quot;;\-#,##0\ &quot;¥&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;¥&quot;;[Red]\-#,##0\ &quot;¥&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;¥&quot;;\-#,##0.00\ &quot;¥&quot;"/>
@@ -1268,6 +1327,9 @@
     <numFmt numFmtId="168" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-&quot;¥&quot;* #,##0_-;\-&quot;¥&quot;* #,##0_-;_-&quot;¥&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="9" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="0;0;"/>
+    <numFmt numFmtId="171" formatCode="0;-0;"/>
+    <numFmt numFmtId="172" formatCode="0.0;-0.0;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1278,7 +1340,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601185960" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601870685" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1293,7 +1355,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601185960" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601870685" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1310,7 +1372,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601185960" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601870685" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1327,7 +1389,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601185960" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601870685" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1344,7 +1406,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601185960" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601870685" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1360,7 +1422,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601185960" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1601870685" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1369,7 +1431,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1377,12 +1439,103 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601185960" type="1" fgLvl="100" fgClr="007FFFD4" bgLvl="0" bgClr="0080FF80"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="0" bgClr="00CCCCFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="0" bgClr="00FF8080"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="0" bgClr="00FFFFCC"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80FF80"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="0080FF80" bgLvl="0" bgClr="007FFFD4"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1396,7 +1549,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601185960" type="1" fgLvl="100" fgClr="007FFFD4" bgLvl="0" bgClr="0080FF80"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="007FFFD4" bgLvl="0" bgClr="0080FF80"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1406,47 +1559,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF7FFFD4"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601185960" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="007FFFD4" bgLvl="0" bgClr="0080FF80"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601185960" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="0" bgClr="00CCCCFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601185960" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="0" bgClr="00FF8080"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601185960" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="0" bgClr="00FFFFCC"/>
-          </ext>
-        </extLst>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1454,18 +1580,18 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601185960" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF80FF80"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601185960" type="1" fgLvl="100" fgClr="0080FF80" bgLvl="0" bgClr="007FFFD4"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1476,13 +1602,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601185960" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1498,55 +1624,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601185960"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601185960">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601185960">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
+          <pm:border xmlns:pm="smNativeData" id="1601870685"/>
         </ext>
       </extLst>
     </border>
@@ -1565,7 +1643,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601185960">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1589,7 +1667,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601185960">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1613,7 +1691,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601185960">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1637,7 +1715,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601185960">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1661,7 +1739,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601185960">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1685,7 +1763,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601185960">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1709,7 +1787,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601185960">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1733,7 +1811,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601185960">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1743,21 +1821,256 @@
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="hair">
         <color rgb="FF000000"/>
       </left>
       <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top style="hair">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601185960"/>
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
+            <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
+            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
+            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
+            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
+            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
+            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
+            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
+            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1601870685">
+            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1601870685"/>
         </ext>
       </extLst>
     </border>
@@ -1770,50 +2083,97 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1827,10 +2187,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1601185960" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1601870685" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1601185960" count="9">
+      <pm:colors xmlns:pm="smNativeData" id="1601870685" count="10">
         <pm:color name="色 24" rgb="7FFFD4"/>
         <pm:color name="色 25" rgb="80FF80"/>
         <pm:color name="色 26" rgb="FFFFCC"/>
@@ -1840,6 +2200,7 @@
         <pm:color name="色 30" rgb="FFFF99"/>
         <pm:color name="色 31" rgb="CCFFFF"/>
         <pm:color name="*20%灰色" rgb="000000"/>
+        <pm:color name="色 33" rgb="FFFF9E"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -2113,154 +2474,154 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.720000" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.150000" customWidth="1" style="6"/>
-    <col min="2" max="7" width="17.850000" customWidth="1" style="6"/>
-    <col min="8" max="8" width="30.430000" customWidth="1" style="6"/>
-    <col min="9" max="13" width="16.660000" customWidth="1" style="6"/>
-    <col min="14" max="14" width="29.060000" customWidth="1" style="6"/>
-    <col min="15" max="15" width="16.490000" customWidth="1" style="6"/>
-    <col min="16" max="16" width="25.950000" customWidth="1" style="6"/>
-    <col min="17" max="21" width="17.490000" customWidth="1" style="6"/>
-    <col min="22" max="22" width="27.160000" customWidth="1" style="6"/>
-    <col min="23" max="25" width="36.440000" customWidth="1" style="6"/>
+    <col min="1" max="1" width="5.150000" customWidth="1" style="0"/>
+    <col min="2" max="7" width="17.850000" customWidth="1" style="0"/>
+    <col min="8" max="8" width="30.430000" customWidth="1" style="0"/>
+    <col min="9" max="13" width="16.660000" customWidth="1" style="0"/>
+    <col min="14" max="14" width="29.060000" customWidth="1" style="0"/>
+    <col min="15" max="15" width="16.490000" customWidth="1" style="0"/>
+    <col min="16" max="16" width="25.950000" customWidth="1" style="0"/>
+    <col min="17" max="21" width="17.490000" customWidth="1" style="0"/>
+    <col min="22" max="22" width="27.160000" customWidth="1" style="0"/>
+    <col min="23" max="25" width="36.440000" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="71.20" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="30"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="22"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601185960" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601870685" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2271,17 +2632,17 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601185960" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601185960" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601185960" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601185960" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601185960" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601870685" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2294,67 +2655,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView view="normal" topLeftCell="D1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.740000" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.230000" customWidth="1" style="6"/>
-    <col min="2" max="2" width="21.070000" customWidth="1" style="6"/>
-    <col min="3" max="3" width="27.960000" customWidth="1" style="6"/>
-    <col min="4" max="4" width="17.490000" customWidth="1" style="6"/>
-    <col min="5" max="5" width="10.590000" customWidth="1" style="6"/>
-    <col min="6" max="6" width="44.040000" customWidth="1" style="6"/>
-    <col min="7" max="7" width="18.210000" customWidth="1" style="6"/>
+    <col min="1" max="1" width="11.230000" customWidth="1" style="0"/>
+    <col min="2" max="2" width="21.070000" customWidth="1" style="0"/>
+    <col min="3" max="3" width="27.960000" customWidth="1" style="0"/>
+    <col min="4" max="4" width="17.490000" customWidth="1" style="0"/>
+    <col min="5" max="5" width="10.590000" customWidth="1" style="0"/>
+    <col min="6" max="6" width="44.040000" customWidth="1" style="0"/>
+    <col min="7" max="7" width="18.210000" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601185960" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601870685" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2365,17 +2728,17 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601185960" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601185960" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601185960" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601185960" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601185960" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601870685" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2386,40 +2749,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.740000" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="22.970000" customWidth="1" style="6"/>
-    <col min="2" max="2" width="31.780000" customWidth="1" style="6"/>
-    <col min="3" max="3" width="21.900000" customWidth="1" style="6"/>
+    <col min="1" max="1" width="22.970000" customWidth="1" style="0"/>
+    <col min="2" max="2" width="21.900000" customWidth="1" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601185960" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601870685" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2430,17 +2788,17 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601185960" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601185960" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601185960" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601185960" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601185960" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601870685" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2451,51 +2809,88 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.800000" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="19.640000" customWidth="1" style="6"/>
+    <col min="1" max="2" width="19.640000" customWidth="1" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>36</v>
       </c>
+      <c r="F1" s="26" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="31" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="F2" s="32" t="n">
+        <v>1234567890</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
         <v>40</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="33" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="F3" s="34" t="n">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="35" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="F4" s="36" t="n">
+        <v>1234567890</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601185960" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1601870685" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2506,17 +2901,17 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601185960" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601185960" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601185960" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601185960" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601185960" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601870685" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/lib/template/report_summary.xlsx
+++ b/lib/template/report_summary.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId4"/>
@@ -19,10 +19,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1601870685" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1601870685" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1601870685" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1601870685"/>
+      <pm:revision xmlns:pm="smNativeData" day="1602226858" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1602226858" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1602226858" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1602226858"/>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +46,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -70,7 +70,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -94,7 +94,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -118,7 +118,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -142,7 +142,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -166,7 +166,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -190,7 +190,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -214,7 +214,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -238,7 +238,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -262,7 +262,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -286,7 +286,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -310,7 +310,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -334,7 +334,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -358,7 +358,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -382,7 +382,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -406,7 +406,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -430,7 +430,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -454,7 +454,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -478,7 +478,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -502,7 +502,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -526,7 +526,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -550,7 +550,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -574,7 +574,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -598,7 +598,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -622,7 +622,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -656,7 +656,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -680,7 +680,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -704,7 +704,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -728,7 +728,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -752,7 +752,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -776,7 +776,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -800,7 +800,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -841,7 +841,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -865,7 +865,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -899,7 +899,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -923,7 +923,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -947,7 +947,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -971,7 +971,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -995,7 +995,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1019,7 +1019,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1043,7 +1043,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1067,7 +1067,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1098,7 +1098,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
+                <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1149,6 +1149,20 @@
       <text>
         <r>
           <t>Double</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <t>Link</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0">
+      <text>
+        <r>
+          <t>LinkNoFrame</t>
         </r>
       </text>
     </comment>
@@ -1157,7 +1171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -1251,13 +1265,13 @@
         <rFont val="ＭＳ ゴシック"/>
         <charset val="128"/>
         <family val="3"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <b/>
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1601870685">
-              <pm:latin face="ＭＳ ゴシック" sz="200" weight="bold" i="0"/>
+            <pm:charSpec xmlns:pm="smNativeData" id="1602226858">
+              <pm:latin face="ＭＳ ゴシック" sz="160" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
             </pm:charSpec>
@@ -1295,10 +1309,16 @@
     <t>浮動小数点数値</t>
   </si>
   <si>
+    <t>リンク</t>
+  </si>
+  <si>
     <t>cent7g</t>
   </si>
   <si>
     <t>0 %</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
   <si>
     <t>Not found</t>
@@ -1331,7 +1351,7 @@
     <numFmt numFmtId="171" formatCode="0;-0;"/>
     <numFmt numFmtId="172" formatCode="0.0;-0.0;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
@@ -1340,7 +1360,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601870685" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602226858" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1355,7 +1375,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601870685" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602226858" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1372,7 +1392,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601870685" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602226858" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1389,7 +1409,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601870685" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602226858" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1406,7 +1426,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601870685" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602226858" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1422,7 +1442,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601870685" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602226858" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1430,8 +1450,76 @@
         </ext>
       </extLst>
     </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF0000FF"/>
+      <sz val="8"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602226858" fgClr="0000FF" ulstyle="single" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="160" lang="default"/>
+            <pm:cs face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
+            <pm:ea face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF00007F"/>
+      <sz val="8"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602226858" fgClr="00007F" ulstyle="single" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="160" lang="default"/>
+            <pm:cs face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
+            <pm:ea face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="8"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602226858" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="160" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="8"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602226858" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ ゴシック" sz="160" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1447,7 +1535,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1458,7 +1546,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="0" bgClr="00CCCCFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="0" bgClr="00CCCCFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1469,7 +1557,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="0" bgClr="00FF8080"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="0" bgClr="00FF8080"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1480,7 +1568,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1491,7 +1579,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1502,7 +1590,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="0080FF80" bgLvl="0" bgClr="007FFFD4"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="0080FF80" bgLvl="0" bgClr="007FFFD4"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1513,7 +1601,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1524,7 +1612,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1535,7 +1623,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1549,7 +1637,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="007FFFD4" bgLvl="0" bgClr="0080FF80"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="007FFFD4" bgLvl="0" bgClr="0080FF80"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1563,7 +1651,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="007FFFD4" bgLvl="0" bgClr="0080FF80"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="007FFFD4" bgLvl="0" bgClr="0080FF80"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1576,11 +1664,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1591,7 +1693,18 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1602,13 +1715,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601870685" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602226858" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1624,7 +1737,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685"/>
+          <pm:border xmlns:pm="smNativeData" id="1602226858"/>
         </ext>
       </extLst>
     </border>
@@ -1643,7 +1756,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1667,7 +1780,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1691,7 +1804,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1715,7 +1828,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1739,7 +1852,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1763,7 +1876,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1787,7 +1900,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1811,7 +1924,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1835,7 +1948,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
@@ -1858,7 +1971,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
@@ -1882,7 +1995,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
@@ -1906,7 +2019,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
@@ -1930,7 +2043,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1953,7 +2066,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
@@ -1976,7 +2089,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
@@ -1999,7 +2112,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
@@ -2022,7 +2135,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
@@ -2035,21 +2148,87 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="none">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
             <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
+            <pm:line position="top" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1602226858">
+            <pm:line position="left" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="10" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2070,7 +2249,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601870685"/>
+          <pm:border xmlns:pm="smNativeData" id="1602226858"/>
         </ext>
       </extLst>
     </border>
@@ -2083,7 +2262,7 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -2121,9 +2300,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2157,22 +2333,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2187,10 +2373,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1601870685" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1602226858" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1601870685" count="10">
+      <pm:colors xmlns:pm="smNativeData" id="1602226858" count="10">
         <pm:color name="色 24" rgb="7FFFD4"/>
         <pm:color name="色 25" rgb="80FF80"/>
         <pm:color name="色 26" rgb="FFFFCC"/>
@@ -2468,7 +2654,7 @@
   </sheetPr>
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="120" workbookViewId="0">
+    <sheetView view="normal" zoomScale="120" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2487,141 +2673,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="71.20" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="30"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="22"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="21"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601870685" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602226858" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2632,17 +2818,17 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602226858" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602226858" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602226858" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602226858" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601870685" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602226858" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2655,69 +2841,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="D1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G3"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.740000" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.230000" customWidth="1" style="0"/>
-    <col min="2" max="2" width="21.070000" customWidth="1" style="0"/>
-    <col min="3" max="3" width="27.960000" customWidth="1" style="0"/>
-    <col min="4" max="4" width="17.490000" customWidth="1" style="0"/>
-    <col min="5" max="5" width="10.590000" customWidth="1" style="0"/>
-    <col min="6" max="6" width="44.040000" customWidth="1" style="0"/>
-    <col min="7" max="7" width="18.210000" customWidth="1" style="0"/>
+    <col min="1" max="1" width="8.620000" customWidth="1" style="0"/>
+    <col min="2" max="2" width="18.060000" customWidth="1" style="0"/>
+    <col min="3" max="3" width="27.980000" customWidth="1" style="0"/>
+    <col min="4" max="4" width="31.210000" customWidth="1" style="0"/>
+    <col min="5" max="5" width="5.390000" customWidth="1" style="0"/>
+    <col min="6" max="6" width="70.910000" customWidth="1" style="0"/>
+    <col min="7" max="7" width="16.710000" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601870685" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602226858" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2728,17 +2914,17 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602226858" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602226858" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602226858" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602226858" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601870685" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602226858" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2758,7 +2944,7 @@
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.740000" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="22.970000" customWidth="1" style="0"/>
-    <col min="2" max="2" width="21.900000" customWidth="1" style="0"/>
+    <col min="2" max="2" width="29.400000" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2777,7 +2963,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601870685" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602226858" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2788,17 +2974,17 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602226858" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602226858" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602226858" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602226858" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601870685" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602226858" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2809,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.800000" defaultRowHeight="12"/>
@@ -2820,7 +3006,7 @@
     <col min="1" max="2" width="19.640000" customWidth="1" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
@@ -2833,64 +3019,75 @@
       <c r="D1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="31" t="s">
         <v>37</v>
       </c>
+      <c r="G1" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="24" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="31" t="n">
+      <c r="E2" s="37" t="n">
         <v>1234567890</v>
       </c>
-      <c r="F2" s="32" t="n">
+      <c r="F2" s="38" t="n">
         <v>1234567890</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="33" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="35" t="n">
         <v>1234567890</v>
       </c>
-      <c r="F3" s="34" t="n">
+      <c r="F3" s="39" t="n">
         <v>1234567890</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="35" t="n">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="36" t="n">
         <v>1234567890</v>
       </c>
-      <c r="F4" s="36" t="n">
+      <c r="F4" s="30" t="n">
         <v>1234567890</v>
+      </c>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" s="32" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601870685" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602226858" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2901,17 +3098,17 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601870685" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601870685" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602226858" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602226858" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602226858" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602226858" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601870685" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602226858" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/lib/template/report_summary.xlsx
+++ b/lib/template/report_summary.xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="TestResult" sheetId="2" r:id="rId2"/>
-    <sheet name="Device" sheetId="3" r:id="rId3"/>
-    <sheet name="CellStyle" sheetId="4" r:id="rId4"/>
+    <sheet name="Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="TestResult" sheetId="2" r:id="rId5"/>
+    <sheet name="Device" sheetId="3" r:id="rId6"/>
+    <sheet name="CellStyle" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$Y$3</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1602226858" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1602226858" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1602226858" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1602226858"/>
+      <pm:revision xmlns:pm="smNativeData" day="1603094487" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1603094487" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1603094487" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1603094487"/>
     </ext>
   </extLst>
 </workbook>
@@ -38,302 +34,601 @@
     <author>Unknown</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
-            <charset val="128"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>no</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>hostName</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>domain</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>ip</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>model</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>type</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>serial</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>os</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>arch</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>cpu</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>cpuCore</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>cpuClock</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>mem</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>disk</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>internalDisk</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>network</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>subnet</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>gateway</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>managedLan</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="T1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>ntp</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="U1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>console</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>package</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>hostGroup</t>
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="X1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>template</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="Y1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="Arial"/>
+            <charset val="0"/>
             <family val="2"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="Arial"/>
+                  <pm:ea face="Arial"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>misc</t>
         </r>
@@ -349,106 +644,193 @@
     <author>Unknown</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>level_header</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
-          </rPr>
-          <t>level_header</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
-          </rPr>
-          <t>category</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>deviceFlag</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
-          </rPr>
-          <t>name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>comment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>platform</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
-          </rPr>
-          <t>id</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
             <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>deviceFlag</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>comment</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>platform</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>level</t>
         </r>
@@ -464,27 +846,49 @@
     <author>Unknown</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>serverName</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
-          </rPr>
-          <t>serverName</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
             <family val="3"/>
-            <charset val="128"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>deviceColumn</t>
         </r>
@@ -500,244 +904,433 @@
     <author>Unknown</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>HeaderServer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
-          </rPr>
-          <t>HeaderServer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>NotFound</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>SameAs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>HeaderTag</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>UnMatch</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Match</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>level_header</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Integer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
-          </rPr>
-          <t>Normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>NumberSameAs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>NumberNotFound</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
-          </rPr>
-          <t>Null</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>NumberNotFound</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>NumberSameAs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
-          </rPr>
-          <t>Unmatch</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Double</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
             <family val="3"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Link</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
-          </rPr>
-          <t>Level</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
             <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Integer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Double</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Link</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>NotFound</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>SameAs</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Match</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>NumberSameAs</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>NumberSameAs</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>NumberNotFound</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>NumberNotFound</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                  <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
+                  <pm:cs face="ＭＳ Ｐゴシック"/>
+                  <pm:ea face="ＭＳ Ｐゴシック"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
           </rPr>
           <t>LinkNoFrame</t>
         </r>
@@ -839,11 +1432,21 @@
     </r>
     <r>
       <rPr>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="128"/>
+        <family val="3"/>
+        <sz val="8"/>
         <b/>
-        <sz val="8"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+              <pm:latin face="ＭＳ ゴシック" sz="160" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
       </rPr>
       <t>ID</t>
     </r>
@@ -897,113 +1500,196 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="9">
-    <numFmt numFmtId="184" formatCode="#,##0.0"/>
-    <numFmt numFmtId="185" formatCode="0\ %"/>
-    <numFmt numFmtId="186" formatCode="_-_¥* #,##0.00_-;\-_¥* #,##0.00_-;_-_¥* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_-_¥* #,##0_-;\-_¥* #,##0_-;_-_¥* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="188" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="189" formatCode="_-&quot;¥&quot;* #,##0_-;\-&quot;¥&quot;* #,##0_-;_-&quot;¥&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="190" formatCode="0;0;"/>
-    <numFmt numFmtId="191" formatCode="0;\-0;"/>
-    <numFmt numFmtId="192" formatCode="0.0;\-0.0;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="18">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;¥&quot;;\-#,##0\ &quot;¥&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;¥&quot;;[Red]\-#,##0\ &quot;¥&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;¥&quot;;\-#,##0.00\ &quot;¥&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;¥&quot;;[Red]\-#,##0.00\ &quot;¥&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;¥&quot;_-;\-* #,##0\ &quot;¥&quot;_-;_-* &quot;-&quot;\ &quot;¥&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _¥_-;\-* #,##0\ _¥_-;_-* &quot;-&quot;\ _¥_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;¥&quot;_-;\-* #,##0.00\ &quot;¥&quot;_-;_-* &quot;-&quot;??\ &quot;¥&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _¥_-;\-* #,##0.00\ _¥_-;_-* &quot;-&quot;??\ _¥_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0\ %"/>
+    <numFmt numFmtId="166" formatCode="_-_¥* #,##0.00_-;\-_¥* #,##0.00_-;_-_¥* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-_¥* #,##0_-;\-_¥* #,##0_-;_-_¥* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;¥&quot;* #,##0_-;\-&quot;¥&quot;* #,##0_-;_-&quot;¥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0;0;"/>
+    <numFmt numFmtId="171" formatCode="0;\-0;"/>
+    <numFmt numFmtId="172" formatCode="0.0;\-0.0;"/>
+    <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
       <b/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ ゴシック" sz="200" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
       <b/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
       <b/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <u/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF0000FF"/>
       <sz val="8"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" fgClr="0000FF" ulstyle="single" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="160" lang="default"/>
+            <pm:cs face="Times New Roman" sz="160" lang="default"/>
+            <pm:ea face="SimSun" sz="160" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <u/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF00007F"/>
       <sz val="8"/>
-      <color rgb="FF00007F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" fgClr="00007F" ulstyle="single" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="160" lang="default"/>
+            <pm:cs face="Times New Roman" sz="160" lang="default"/>
+            <pm:ea face="SimSun" sz="160" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
       <b/>
+      <color rgb="FF000000"/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="160" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="160" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="160" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
       <b/>
+      <color rgb="FF000000"/>
       <sz val="8"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ ゴシック" sz="160" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="160" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="160" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,103 +1697,169 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7FFFD4"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="007FFFD4" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
         <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF80FF80"/>
         <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="0080FF80" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487"/>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
@@ -1122,20 +1874,16 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
@@ -1150,44 +1898,107 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
@@ -1196,158 +2007,347 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1603094487"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="パーセント" xfId="5" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="桁区切り" xfId="2" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="桁区切り [0.00]" xfId="1" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="通貨" xfId="4" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="通貨 [0.00]" xfId="3" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1602226858" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1603094487" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1602226858" count="10">
-        <pm:color name="色 24" rgb="7FFFD4"/>
-        <pm:color name="色 25" rgb="80FF80"/>
-        <pm:color name="色 26" rgb="FFFFCC"/>
-        <pm:color name="色 27" rgb="CCCCFF"/>
-        <pm:color name="色 28" rgb="FF99CC"/>
-        <pm:color name="色 29" rgb="FF8080"/>
-        <pm:color name="色 30" rgb="FFFF99"/>
-        <pm:color name="色 31" rgb="CCFFFF"/>
-        <pm:color name="*20%灰色" rgb="000000"/>
-        <pm:color name="色 33" rgb="FFFF9E"/>
+      <pm:colors xmlns:pm="smNativeData" id="1603094487" count="6">
+        <pm:color name="色 24" rgb="FF99CC"/>
+        <pm:color name="色 25" rgb="FFFF99"/>
+        <pm:color name="色 26" rgb="CCFFFF"/>
+        <pm:color name="色 27" rgb="80FF80"/>
+        <pm:color name="色 28" rgb="7FFFD4"/>
+        <pm:color name="色 29" rgb="FFFFCC"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -1609,171 +2609,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
+    <sheetView view="normal" zoomScale="120" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="11" defaultColWidth="12.710000" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="29" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="21" width="17.42578125" customWidth="1"/>
-    <col min="22" max="22" width="27.140625" customWidth="1"/>
-    <col min="23" max="25" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.140000" customWidth="1"/>
+    <col min="2" max="7" width="17.850000" customWidth="1"/>
+    <col min="8" max="8" width="30.420000" customWidth="1"/>
+    <col min="9" max="13" width="16.710000" customWidth="1"/>
+    <col min="14" max="14" width="29.000000" customWidth="1"/>
+    <col min="15" max="15" width="16.420000" customWidth="1"/>
+    <col min="16" max="16" width="26.000000" customWidth="1"/>
+    <col min="17" max="21" width="17.420000" customWidth="1"/>
+    <col min="22" max="22" width="27.140000" customWidth="1"/>
+    <col min="23" max="25" width="36.420000" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
+    <row r="2" spans="1:25" ht="71.25" customHeight="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
+    <row r="3" spans="1:25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" useFirstPageNumber="1" r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1603094487" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="1.052778" bottom="1.052778" header="0.787500" footer="0.787500"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" cellComments="asDisplayed" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602226858" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603094487" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1783,77 +2799,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0"/>
+    <sheetView view="normal" zoomScale="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="11" defaultColWidth="12.710000" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" customWidth="1"/>
-    <col min="6" max="6" width="70.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.570000" customWidth="1"/>
+    <col min="2" max="2" width="18.000000" customWidth="1"/>
+    <col min="3" max="3" width="28.000000" customWidth="1"/>
+    <col min="4" max="4" width="31.140000" customWidth="1"/>
+    <col min="5" max="5" width="5.420000" customWidth="1"/>
+    <col min="6" max="6" width="70.850000" customWidth="1"/>
+    <col min="7" max="7" width="16.710000" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
+    <row r="2" spans="1:7">
+      <c r="A2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" cellComments="asDisplayed"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1603094487" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="1.052778" bottom="1.052778" header="0.787500" footer="0.787500"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602226858" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603094487" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1863,41 +2895,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0"/>
+    <sheetView view="normal" zoomScale="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="11" defaultColWidth="12.710000" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.000000" customWidth="1"/>
+    <col min="2" max="2" width="29.420000" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" cellComments="asDisplayed"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1603094487" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="1.052778" bottom="1.052778" header="0.787500" footer="0.787500"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602226858" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603094487" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1907,105 +2955,121 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.850000" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="2" width="19.570000" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="26" t="n">
         <v>1234567890</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="14" t="n">
         <v>1234567890</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="7">
+      <c r="D3" s="24"/>
+      <c r="E3" s="12" t="n">
         <v>1234567890</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="15" t="n">
         <v>1234567890</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="8">
+    <row r="4" spans="1:6">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="13" t="n">
         <v>1234567890</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="8" t="n">
         <v>1234567890</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G6" s="5" t="s">
+    <row r="6" spans="7:7">
+      <c r="G6" s="10" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" cellComments="asDisplayed"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1603094487" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="1.052778" bottom="1.052778" header="0.787500" footer="0.787500"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602226858" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603094487" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/lib/template/report_summary.xlsx
+++ b/lib/template/report_summary.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId4"/>
@@ -19,10 +19,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1603094487" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1603094487" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1603094487" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1603094487"/>
+      <pm:revision xmlns:pm="smNativeData" day="1605936874" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1605936874" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1605936874" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1605936874"/>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +46,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -70,7 +70,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -94,7 +94,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -118,7 +118,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -142,7 +142,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -166,7 +166,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -190,7 +190,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -214,7 +214,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -238,7 +238,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -262,7 +262,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -286,7 +286,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -310,7 +310,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -334,7 +334,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -358,7 +358,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -382,7 +382,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -406,7 +406,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -430,7 +430,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -454,7 +454,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -478,7 +478,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -502,7 +502,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -526,7 +526,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -550,7 +550,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -574,7 +574,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -598,7 +598,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -622,7 +622,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
                   <pm:cs face="Arial"/>
                   <pm:ea face="Arial"/>
@@ -656,7 +656,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -680,7 +680,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -704,7 +704,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -728,7 +728,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -752,7 +752,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -776,7 +776,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -800,7 +800,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -824,7 +824,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -858,7 +858,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -882,7 +882,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -916,7 +916,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -940,7 +940,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -964,7 +964,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -988,7 +988,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1012,7 +1012,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1036,7 +1036,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1060,7 +1060,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1084,7 +1084,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1108,7 +1108,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1132,7 +1132,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1156,7 +1156,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1180,7 +1180,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1204,7 +1204,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1228,7 +1228,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1252,7 +1252,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1276,7 +1276,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1300,7 +1300,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1324,7 +1324,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+                <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
                   <pm:latin face="ＭＳ Ｐゴシック" sz="200" weight="normal" i="0"/>
                   <pm:cs face="ＭＳ Ｐゴシック"/>
                   <pm:ea face="ＭＳ Ｐゴシック"/>
@@ -1406,7 +1406,7 @@
     <t>コンソール</t>
   </si>
   <si>
-    <t>パッケージ</t>
+    <t>必須パッケージ</t>
   </si>
   <si>
     <t>監視ホストグループ</t>
@@ -1440,7 +1440,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1603094487">
+            <pm:charSpec xmlns:pm="smNativeData" id="1605936874">
               <pm:latin face="ＭＳ ゴシック" sz="160" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1530,7 +1530,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605936874" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1545,7 +1545,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605936874" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1562,7 +1562,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605936874" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1579,7 +1579,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605936874" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1596,7 +1596,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605936874" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1612,7 +1612,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605936874" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1629,7 +1629,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605936874" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -1646,7 +1646,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" fgClr="00007F" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605936874" fgClr="00007F" ulstyle="single" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -1663,7 +1663,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605936874" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="160" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="160" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="160" lang="default" weight="bold"/>
@@ -1680,7 +1680,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094487" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605936874" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="160" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="160" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="160" lang="default" weight="bold"/>
@@ -1689,7 +1689,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1705,7 +1705,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1722,7 +1722,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1733,7 +1733,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1744,7 +1744,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1755,7 +1755,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="007FFFD4" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="007FFFD4" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1766,7 +1766,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1780,7 +1780,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1791,7 +1791,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1802,7 +1802,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1813,7 +1813,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1824,7 +1824,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="0080FF80" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="0080FF80" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1835,13 +1835,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094487" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7FFFD4"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1605936874" type="1" fgLvl="100" fgClr="007FFFD4" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1857,7 +1868,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487"/>
+          <pm:border xmlns:pm="smNativeData" id="1605936874"/>
         </ext>
       </extLst>
     </border>
@@ -1876,7 +1887,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1900,7 +1911,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1924,7 +1935,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1946,7 +1957,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1969,7 +1980,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1992,7 +2003,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2015,7 +2026,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2037,7 +2048,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2061,7 +2072,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2085,7 +2096,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2107,7 +2118,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2131,7 +2142,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2155,7 +2166,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2179,7 +2190,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2203,7 +2214,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487">
+          <pm:border xmlns:pm="smNativeData" id="1605936874">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2227,7 +2238,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094487"/>
+          <pm:border xmlns:pm="smNativeData" id="1605936874"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1605936874"/>
         </ext>
       </extLst>
     </border>
@@ -2240,7 +2270,7 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -2295,9 +2325,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2338,10 +2365,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1603094487" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1605936874" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1603094487" count="6">
+      <pm:colors xmlns:pm="smNativeData" id="1605936874" count="6">
         <pm:color name="色 24" rgb="FF99CC"/>
         <pm:color name="色 25" rgb="FFFF99"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -2615,7 +2642,7 @@
   </sheetPr>
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="120" workbookViewId="0">
+    <sheetView tabSelected="1" view="normal" zoomScale="120" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2768,7 +2795,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1603094487" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1605936874" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2779,17 +2806,17 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1605936874" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1605936874" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1605936874" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1605936874" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603094487" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1605936874" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2864,7 +2891,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1603094487" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1605936874" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2875,17 +2902,17 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1605936874" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1605936874" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1605936874" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1605936874" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603094487" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1605936874" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2924,7 +2951,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1603094487" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1605936874" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2935,17 +2962,17 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1605936874" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1605936874" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1605936874" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1605936874" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603094487" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1605936874" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2958,7 +2985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2968,19 +2995,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -2991,17 +3018,17 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="34" t="n">
+      <c r="D2" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="26" t="n">
+      <c r="E2" s="25" t="n">
         <v>1234567890</v>
       </c>
       <c r="F2" s="14" t="n">
@@ -3012,14 +3039,14 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="12" t="n">
         <v>1234567890</v>
       </c>
@@ -3048,7 +3075,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1603094487" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1605936874" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3059,17 +3086,17 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1603094487" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094487" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1605936874" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1605936874" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1605936874" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1605936874" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603094487" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1605936874" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/lib/template/report_summary.xlsx
+++ b/lib/template/report_summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\getconfig\lib\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\getconfig\getconfig_set\yg01\lib\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC13D8-20AB-4BF1-AEA8-2867A2238EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="13200" yWindow="4560" windowWidth="23820" windowHeight="15255" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,9 @@
     <sheet name="CellStyle" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$Y$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$AA$3</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>no</t>
   </si>
@@ -222,12 +223,20 @@
   </si>
   <si>
     <t>LinkNoFrame</t>
+  </si>
+  <si>
+    <t>cpuName</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>vm</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0;0;;"/>
     <numFmt numFmtId="177" formatCode="#,##0.0"/>
@@ -450,7 +459,7 @@
     <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,26 +833,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="7" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="29" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="21" width="17.42578125" customWidth="1"/>
-    <col min="22" max="22" width="27.140625" customWidth="1"/>
-    <col min="23" max="25" width="36.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" customWidth="1"/>
+    <col min="12" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="26" customWidth="1"/>
+    <col min="19" max="23" width="17.42578125" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" customWidth="1"/>
+    <col min="25" max="27" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,58 +883,64 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -930,10 +950,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -946,8 +966,10 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -973,6 +995,8 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
@@ -986,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
@@ -1057,7 +1081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
@@ -1093,7 +1117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
